--- a/biology/Médecine/Historia_medicinal_de_las_cosas_que_se_traen_de_nuestras_Indias_Occidentales/Historia_medicinal_de_las_cosas_que_se_traen_de_nuestras_Indias_Occidentales.xlsx
+++ b/biology/Médecine/Historia_medicinal_de_las_cosas_que_se_traen_de_nuestras_Indias_Occidentales/Historia_medicinal_de_las_cosas_que_se_traen_de_nuestras_Indias_Occidentales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Historia medicinal de las cosas que se traen de nuestras Indias Occidentales (Histoire médicinale des choses qui sont apportées de nos Indes occidentales) est le titre standard d'un ouvrage de Nicolás Monardes (1493-1588), médecin et botaniste espagnol. Cet ouvrage a été publié à Séville en trois parties sous des titres différents, faisant l'objet de plusieurs éditions successives progressivement augmentées, en 1565, 1569 et 1574 (édition complète), plus une réimpression inchangée de l'édition de 1574 en 1580. 
-Cet ouvrage se propose d'étudier et d'expérimenter les produits et les médicaments du Nouveau Monde pour explorer leurs propriétés pharmacologiques. Il a été traduit en latin par Charles de L'Écluse et en anglais par John Frampton (en)[1]. 
+Cet ouvrage se propose d'étudier et d'expérimenter les produits et les médicaments du Nouveau Monde pour explorer leurs propriétés pharmacologiques. Il a été traduit en latin par Charles de L'Écluse et en anglais par John Frampton (en). 
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Détails des éditions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les titres et éditions successives sont les suivants :
 1565 : Dos libros ...
@@ -547,7 +561,9 @@
           <t>Traduction en latin</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Une traduction latine, abrégée, avec des commentaires éditoriaux, a été rédigée par Charles de L'Écluse. Elle a fait l'objet de plusieurs éditions :  
 1574 : De simplicibus medicamentis ex occidentali India delatis quorum in medicina usus est. Anvers : Plantin ;
